--- a/solver/excel/result/3/pred_result.xlsx
+++ b/solver/excel/result/3/pred_result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,85 +436,95 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>文物编号</t>
+          <t>Unnamed: 0</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>文物采样点</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>表面风化</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>二氧化硅(SiO2)</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>氧化钠(Na2O)</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>氧化钾(K2O)</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>氧化钙(CaO)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>氧化镁(MgO)</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>氧化铝(Al2O3)</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>氧化铁(Fe2O3)</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>氧化铜(CuO)</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>氧化铅(PbO)</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>氧化钡(BaO)</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>五氧化二磷(P2O5)</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>氧化锶(SrO)</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>氧化锡(SnO2)</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>二氧化硫(SO2)</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>风化</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>类型</t>
         </is>
@@ -524,57 +534,65 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="inlineStr">
         <is>
           <t>A1</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>0</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>78.45</v>
       </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>0.03865000772521673</v>
       </c>
       <c r="G2" t="n">
+        <v>0.4094023276540967</v>
+      </c>
+      <c r="H2" t="n">
         <v>6.08</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>1.86</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>7.23</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>2.15</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>2.11</v>
       </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>0.0202639502487272</v>
       </c>
       <c r="N2" t="n">
+        <v>0.03617126178695641</v>
+      </c>
+      <c r="O2" t="n">
         <v>1.06</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>0.03</v>
       </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
       <c r="Q2" t="n">
+        <v>0.01551245258498479</v>
+      </c>
+      <c r="R2" t="n">
         <v>0.51</v>
       </c>
-      <c r="R2" t="inlineStr">
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>无风化</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
         <is>
           <t>高钾</t>
         </is>
@@ -584,57 +602,65 @@
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="inlineStr">
         <is>
           <t>A2</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>1</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>37.75</v>
       </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>0.0620024587317039</v>
       </c>
       <c r="G3" t="n">
+        <v>0.5158936710682445</v>
+      </c>
+      <c r="H3" t="n">
         <v>7.63</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
+        <v>0.08919622262969171</v>
+      </c>
+      <c r="J3" t="n">
         <v>2.33</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>0.3461434867752678</v>
       </c>
       <c r="L3" t="n">
+        <v>0.2927072809524213</v>
+      </c>
+      <c r="M3" t="n">
         <v>34.3</v>
       </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
       <c r="N3" t="n">
+        <v>0.5572604423862939</v>
+      </c>
+      <c r="O3" t="n">
         <v>14.27</v>
       </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>0.03702041199785832</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="inlineStr">
+        <v>0.01661809130345735</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.08315793415506102</v>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>风化</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
         <is>
           <t>铅钡</t>
         </is>
@@ -644,57 +670,65 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="inlineStr">
         <is>
           <t>A3</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>0</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>31.95</v>
       </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
       <c r="F4" t="n">
+        <v>0.3735875824127967</v>
+      </c>
+      <c r="G4" t="n">
         <v>1.36</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>7.19</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>0.8100000000000001</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>2.93</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>7.06</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>0.21</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>39.58</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>4.69</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>2.68</v>
       </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>0.52</v>
       </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
       <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="inlineStr">
+        <v>0.212994022409893</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.4334183951773065</v>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>无风化</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
         <is>
           <t>铅钡</t>
         </is>
@@ -704,57 +738,65 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="inlineStr">
         <is>
           <t>A4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>0</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>35.47</v>
       </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
       <c r="F5" t="n">
+        <v>1.264156007659768</v>
+      </c>
+      <c r="G5" t="n">
         <v>0.79</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>2.89</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>1.05</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>7.07</v>
       </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
         <v>6.45</v>
       </c>
-      <c r="K5" t="n">
+      <c r="L5" t="n">
         <v>0.96</v>
       </c>
-      <c r="L5" t="n">
+      <c r="M5" t="n">
         <v>24.28</v>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
         <v>8.31</v>
       </c>
-      <c r="N5" t="n">
+      <c r="O5" t="n">
         <v>8.449999999999999</v>
       </c>
-      <c r="O5" t="n">
+      <c r="P5" t="n">
         <v>0.28</v>
       </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
       <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="inlineStr">
+        <v>0.1455490820726834</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.5902949102675479</v>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>无风化</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
         <is>
           <t>铅钡</t>
         </is>
@@ -764,57 +806,65 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>A5</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>1</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>64.29000000000001</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>1.2</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>0.37</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>1.64</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>2.34</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>12.75</v>
       </c>
-      <c r="J6" t="n">
+      <c r="K6" t="n">
         <v>0.8100000000000001</v>
       </c>
-      <c r="K6" t="n">
+      <c r="L6" t="n">
         <v>0.9399999999999999</v>
       </c>
-      <c r="L6" t="n">
+      <c r="M6" t="n">
         <v>12.23</v>
       </c>
-      <c r="M6" t="n">
+      <c r="N6" t="n">
         <v>2.16</v>
       </c>
-      <c r="N6" t="n">
+      <c r="O6" t="n">
         <v>0.19</v>
       </c>
-      <c r="O6" t="n">
+      <c r="P6" t="n">
         <v>0.21</v>
       </c>
-      <c r="P6" t="n">
+      <c r="Q6" t="n">
         <v>0.49</v>
       </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="inlineStr">
+      <c r="R6" t="n">
+        <v>0.3799999999999955</v>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>风化</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
         <is>
           <t>铅钡</t>
         </is>
@@ -824,57 +874,65 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>A6</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>1</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>93.17</v>
       </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
       <c r="F7" t="n">
+        <v>0.22350024268962</v>
+      </c>
+      <c r="G7" t="n">
         <v>1.35</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>0.64</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>0.21</v>
       </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
         <v>1.52</v>
       </c>
-      <c r="J7" t="n">
+      <c r="K7" t="n">
         <v>0.27</v>
       </c>
-      <c r="K7" t="n">
+      <c r="L7" t="n">
         <v>1.73</v>
       </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>0.3262775157164067</v>
       </c>
       <c r="N7" t="n">
+        <v>0.1721326167147906</v>
+      </c>
+      <c r="O7" t="n">
         <v>0.21</v>
       </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>0.004690775818196036</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" t="inlineStr">
+        <v>0.05717000037375757</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.1162288486872491</v>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>风化</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
         <is>
           <t>高钾</t>
         </is>
@@ -884,57 +942,65 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>A7</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="D8" t="n">
         <v>1</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>90.83</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
       <c r="F8" t="n">
+        <v>0.09272701150287017</v>
+      </c>
+      <c r="G8" t="n">
         <v>0.98</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>1.12</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
+        <v>0.1257882209685753</v>
+      </c>
+      <c r="J8" t="n">
         <v>5.06</v>
       </c>
-      <c r="J8" t="n">
+      <c r="K8" t="n">
         <v>0.24</v>
       </c>
-      <c r="K8" t="n">
+      <c r="L8" t="n">
         <v>1.17</v>
       </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>0.05948638575860846</v>
       </c>
       <c r="N8" t="n">
+        <v>0.05812467983114428</v>
+      </c>
+      <c r="O8" t="n">
         <v>0.13</v>
       </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>0.001063397878342134</v>
       </c>
       <c r="Q8" t="n">
+        <v>0.02281030406045907</v>
+      </c>
+      <c r="R8" t="n">
         <v>0.11</v>
       </c>
-      <c r="R8" t="inlineStr">
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>风化</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
         <is>
           <t>高钾</t>
         </is>
@@ -944,57 +1010,65 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>A8</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="D9" t="n">
         <v>0</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>51.12</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>0.23</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>0.89</v>
       </c>
-      <c r="H9" t="n">
+      <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
+      <c r="J9" t="n">
         <v>2.12</v>
       </c>
-      <c r="J9" t="n">
+      <c r="K9" t="n">
         <v>0</v>
       </c>
-      <c r="K9" t="n">
+      <c r="L9" t="n">
         <v>9.01</v>
       </c>
-      <c r="L9" t="n">
+      <c r="M9" t="n">
         <v>21.24</v>
       </c>
-      <c r="M9" t="n">
+      <c r="N9" t="n">
         <v>11.34</v>
       </c>
-      <c r="N9" t="n">
+      <c r="O9" t="n">
         <v>1.46</v>
       </c>
-      <c r="O9" t="n">
+      <c r="P9" t="n">
         <v>0.31</v>
       </c>
-      <c r="P9" t="n">
+      <c r="Q9" t="n">
         <v>0</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="R9" t="n">
         <v>2.26</v>
       </c>
-      <c r="R9" t="inlineStr">
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>无风化</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
         <is>
           <t>铅钡</t>
         </is>

--- a/solver/excel/result/3/pred_result.xlsx
+++ b/solver/excel/result/3/pred_result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:V9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -529,6 +529,16 @@
           <t>类型</t>
         </is>
       </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>高钾概率的置信度</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>铅钡概率的置信度</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -597,6 +607,12 @@
           <t>高钾</t>
         </is>
       </c>
+      <c r="U2" t="n">
+        <v>0.8468149119675467</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.1531850880324534</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -665,6 +681,12 @@
           <t>铅钡</t>
         </is>
       </c>
+      <c r="U3" t="n">
+        <v>0.1209489476464078</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.8790510523535922</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -733,6 +755,12 @@
           <t>铅钡</t>
         </is>
       </c>
+      <c r="U4" t="n">
+        <v>0.08181703338650349</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.9181829666134965</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -801,6 +829,12 @@
           <t>铅钡</t>
         </is>
       </c>
+      <c r="U5" t="n">
+        <v>0.0770114936144853</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.9229885063855148</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -869,6 +903,12 @@
           <t>铅钡</t>
         </is>
       </c>
+      <c r="U6" t="n">
+        <v>0.1337475925334465</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.8662524074665534</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -937,6 +977,12 @@
           <t>高钾</t>
         </is>
       </c>
+      <c r="U7" t="n">
+        <v>0.8870340179690644</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.1129659820309356</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -1005,6 +1051,12 @@
           <t>高钾</t>
         </is>
       </c>
+      <c r="U8" t="n">
+        <v>0.8779081735167591</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.1220918264832408</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -1072,6 +1124,12 @@
         <is>
           <t>铅钡</t>
         </is>
+      </c>
+      <c r="U9" t="n">
+        <v>0.1097410931608724</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.8902589068391276</v>
       </c>
     </row>
   </sheetData>

--- a/solver/excel/result/3/pred_result.xlsx
+++ b/solver/excel/result/3/pred_result.xlsx
@@ -446,77 +446,77 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>表面风化</t>
+          <t>二氧化硅(SiO2)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>二氧化硅(SiO2)</t>
+          <t>氧化钠(Na2O)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>氧化钠(Na2O)</t>
+          <t>氧化钾(K2O)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>氧化钾(K2O)</t>
+          <t>氧化钙(CaO)</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>氧化钙(CaO)</t>
+          <t>氧化镁(MgO)</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>氧化镁(MgO)</t>
+          <t>氧化铝(Al2O3)</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>氧化铝(Al2O3)</t>
+          <t>氧化铁(Fe2O3)</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>氧化铁(Fe2O3)</t>
+          <t>氧化铜(CuO)</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>氧化铜(CuO)</t>
+          <t>氧化铅(PbO)</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>氧化铅(PbO)</t>
+          <t>氧化钡(BaO)</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>氧化钡(BaO)</t>
+          <t>五氧化二磷(P2O5)</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>五氧化二磷(P2O5)</t>
+          <t>氧化锶(SrO)</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>氧化锶(SrO)</t>
+          <t>氧化锡(SnO2)</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>氧化锡(SnO2)</t>
+          <t>二氧化硫(SO2)</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>二氧化硫(SO2)</t>
+          <t>量化风化</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
@@ -553,50 +553,50 @@
         </is>
       </c>
       <c r="D2" t="n">
+        <v>78.45</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.03865000772521673</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.4094023276540967</v>
+      </c>
+      <c r="G2" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="I2" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.0202639502487272</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.03617126178695641</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.01551245258498479</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="R2" t="n">
         <v>0</v>
       </c>
-      <c r="E2" t="n">
-        <v>78.45</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.03865000772521673</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.4094023276540967</v>
-      </c>
-      <c r="H2" t="n">
-        <v>6.08</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="J2" t="n">
-        <v>7.23</v>
-      </c>
-      <c r="K2" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="L2" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.0202639502487272</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.03617126178695641</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.01551245258498479</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0.51</v>
-      </c>
       <c r="S2" t="inlineStr">
         <is>
           <t>无风化</t>
@@ -608,10 +608,10 @@
         </is>
       </c>
       <c r="U2" t="n">
-        <v>0.8468149119675467</v>
+        <v>0.7432764478407271</v>
       </c>
       <c r="V2" t="n">
-        <v>0.1531850880324534</v>
+        <v>0.2567235521592729</v>
       </c>
     </row>
     <row r="3">
@@ -627,50 +627,50 @@
         </is>
       </c>
       <c r="D3" t="n">
+        <v>37.75</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.0620024587317039</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.5158936710682445</v>
+      </c>
+      <c r="G3" t="n">
+        <v>7.63</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.08919622262969171</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.3461434867752678</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.2927072809524213</v>
+      </c>
+      <c r="L3" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.5572604423862939</v>
+      </c>
+      <c r="N3" t="n">
+        <v>14.27</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.03702041199785832</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.01661809130345735</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.08315793415506102</v>
+      </c>
+      <c r="R3" t="n">
         <v>1</v>
       </c>
-      <c r="E3" t="n">
-        <v>37.75</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.0620024587317039</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.5158936710682445</v>
-      </c>
-      <c r="H3" t="n">
-        <v>7.63</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.08919622262969171</v>
-      </c>
-      <c r="J3" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.3461434867752678</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.2927072809524213</v>
-      </c>
-      <c r="M3" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0.5572604423862939</v>
-      </c>
-      <c r="O3" t="n">
-        <v>14.27</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0.03702041199785832</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0.01661809130345735</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0.08315793415506102</v>
-      </c>
       <c r="S3" t="inlineStr">
         <is>
           <t>风化</t>
@@ -682,10 +682,10 @@
         </is>
       </c>
       <c r="U3" t="n">
-        <v>0.1209489476464078</v>
+        <v>0.1056173586514267</v>
       </c>
       <c r="V3" t="n">
-        <v>0.8790510523535922</v>
+        <v>0.8943826413485733</v>
       </c>
     </row>
     <row r="4">
@@ -701,50 +701,50 @@
         </is>
       </c>
       <c r="D4" t="n">
+        <v>31.95</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.3735875824127967</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="G4" t="n">
+        <v>7.19</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="J4" t="n">
+        <v>7.06</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="L4" t="n">
+        <v>39.58</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4.69</v>
+      </c>
+      <c r="N4" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.212994022409893</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.4334183951773065</v>
+      </c>
+      <c r="R4" t="n">
         <v>0</v>
       </c>
-      <c r="E4" t="n">
-        <v>31.95</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.3735875824127967</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="H4" t="n">
-        <v>7.19</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2.93</v>
-      </c>
-      <c r="K4" t="n">
-        <v>7.06</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="M4" t="n">
-        <v>39.58</v>
-      </c>
-      <c r="N4" t="n">
-        <v>4.69</v>
-      </c>
-      <c r="O4" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0.212994022409893</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0.4334183951773065</v>
-      </c>
       <c r="S4" t="inlineStr">
         <is>
           <t>无风化</t>
@@ -756,10 +756,10 @@
         </is>
       </c>
       <c r="U4" t="n">
-        <v>0.08181703338650349</v>
+        <v>0.06119347728509221</v>
       </c>
       <c r="V4" t="n">
-        <v>0.9181829666134965</v>
+        <v>0.9388065227149079</v>
       </c>
     </row>
     <row r="5">
@@ -775,50 +775,50 @@
         </is>
       </c>
       <c r="D5" t="n">
+        <v>35.47</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.264156007659768</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="I5" t="n">
+        <v>7.07</v>
+      </c>
+      <c r="J5" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="L5" t="n">
+        <v>24.28</v>
+      </c>
+      <c r="M5" t="n">
+        <v>8.31</v>
+      </c>
+      <c r="N5" t="n">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.1455490820726834</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.5902949102675479</v>
+      </c>
+      <c r="R5" t="n">
         <v>0</v>
       </c>
-      <c r="E5" t="n">
-        <v>35.47</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1.264156007659768</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2.89</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="J5" t="n">
-        <v>7.07</v>
-      </c>
-      <c r="K5" t="n">
-        <v>6.45</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="M5" t="n">
-        <v>24.28</v>
-      </c>
-      <c r="N5" t="n">
-        <v>8.31</v>
-      </c>
-      <c r="O5" t="n">
-        <v>8.449999999999999</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0.1455490820726834</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0.5902949102675479</v>
-      </c>
       <c r="S5" t="inlineStr">
         <is>
           <t>无风化</t>
@@ -830,10 +830,10 @@
         </is>
       </c>
       <c r="U5" t="n">
-        <v>0.0770114936144853</v>
+        <v>0.05497675172238086</v>
       </c>
       <c r="V5" t="n">
-        <v>0.9229885063855148</v>
+        <v>0.9450232482776192</v>
       </c>
     </row>
     <row r="6">
@@ -849,50 +849,50 @@
         </is>
       </c>
       <c r="D6" t="n">
+        <v>64.29000000000001</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="I6" t="n">
+        <v>12.75</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="L6" t="n">
+        <v>12.23</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.3799999999999955</v>
+      </c>
+      <c r="R6" t="n">
         <v>1</v>
       </c>
-      <c r="E6" t="n">
-        <v>64.29000000000001</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="I6" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="J6" t="n">
-        <v>12.75</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="M6" t="n">
-        <v>12.23</v>
-      </c>
-      <c r="N6" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0.3799999999999955</v>
-      </c>
       <c r="S6" t="inlineStr">
         <is>
           <t>风化</t>
@@ -904,10 +904,10 @@
         </is>
       </c>
       <c r="U6" t="n">
-        <v>0.1337475925334465</v>
+        <v>0.1140069182886973</v>
       </c>
       <c r="V6" t="n">
-        <v>0.8662524074665534</v>
+        <v>0.885993081711303</v>
       </c>
     </row>
     <row r="7">
@@ -923,50 +923,50 @@
         </is>
       </c>
       <c r="D7" t="n">
+        <v>93.17</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.22350024268962</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.3262775157164067</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.1721326167147906</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.004690775818196036</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.05717000037375757</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.1162288486872491</v>
+      </c>
+      <c r="R7" t="n">
         <v>1</v>
       </c>
-      <c r="E7" t="n">
-        <v>93.17</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.22350024268962</v>
-      </c>
-      <c r="G7" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.3262775157164067</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0.1721326167147906</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0.004690775818196036</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0.05717000037375757</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0.1162288486872491</v>
-      </c>
       <c r="S7" t="inlineStr">
         <is>
           <t>风化</t>
@@ -978,10 +978,10 @@
         </is>
       </c>
       <c r="U7" t="n">
-        <v>0.8870340179690644</v>
+        <v>0.8738858196858047</v>
       </c>
       <c r="V7" t="n">
-        <v>0.1129659820309356</v>
+        <v>0.1261141803141954</v>
       </c>
     </row>
     <row r="8">
@@ -997,50 +997,50 @@
         </is>
       </c>
       <c r="D8" t="n">
+        <v>90.83</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.09272701150287017</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.1257882209685753</v>
+      </c>
+      <c r="I8" t="n">
+        <v>5.06</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.05948638575860846</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.05812467983114428</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.001063397878342134</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.02281030406045907</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="R8" t="n">
         <v>1</v>
       </c>
-      <c r="E8" t="n">
-        <v>90.83</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.09272701150287017</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.1257882209685753</v>
-      </c>
-      <c r="J8" t="n">
-        <v>5.06</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.05948638575860846</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0.05812467983114428</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0.001063397878342134</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0.02281030406045907</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0.11</v>
-      </c>
       <c r="S8" t="inlineStr">
         <is>
           <t>风化</t>
@@ -1052,10 +1052,10 @@
         </is>
       </c>
       <c r="U8" t="n">
-        <v>0.8779081735167591</v>
+        <v>0.8607156714927237</v>
       </c>
       <c r="V8" t="n">
-        <v>0.1220918264832408</v>
+        <v>0.1392843285072764</v>
       </c>
     </row>
     <row r="9">
@@ -1071,50 +1071,50 @@
         </is>
       </c>
       <c r="D9" t="n">
+        <v>51.12</v>
+      </c>
+      <c r="E9" t="n">
         <v>0</v>
       </c>
-      <c r="E9" t="n">
-        <v>51.12</v>
-      </c>
       <c r="F9" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="G9" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.89</v>
-      </c>
       <c r="I9" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="J9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>2.12</v>
-      </c>
       <c r="K9" t="n">
+        <v>9.01</v>
+      </c>
+      <c r="L9" t="n">
+        <v>21.24</v>
+      </c>
+      <c r="M9" t="n">
+        <v>11.34</v>
+      </c>
+      <c r="N9" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="P9" t="n">
         <v>0</v>
       </c>
-      <c r="L9" t="n">
-        <v>9.01</v>
-      </c>
-      <c r="M9" t="n">
-        <v>21.24</v>
-      </c>
-      <c r="N9" t="n">
-        <v>11.34</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0.31</v>
-      </c>
       <c r="Q9" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="R9" t="n">
         <v>0</v>
       </c>
-      <c r="R9" t="n">
-        <v>2.26</v>
-      </c>
       <c r="S9" t="inlineStr">
         <is>
           <t>无风化</t>
@@ -1126,10 +1126,10 @@
         </is>
       </c>
       <c r="U9" t="n">
-        <v>0.1097410931608724</v>
+        <v>0.06321931124229055</v>
       </c>
       <c r="V9" t="n">
-        <v>0.8902589068391276</v>
+        <v>0.9367806887577095</v>
       </c>
     </row>
   </sheetData>

--- a/solver/excel/result/3/pred_result.xlsx
+++ b/solver/excel/result/3/pred_result.xlsx
@@ -608,10 +608,10 @@
         </is>
       </c>
       <c r="U2" t="n">
-        <v>0.7432764478407271</v>
+        <v>0.7385971460191594</v>
       </c>
       <c r="V2" t="n">
-        <v>0.2567235521592729</v>
+        <v>0.2614028539808406</v>
       </c>
     </row>
     <row r="3">
@@ -682,10 +682,10 @@
         </is>
       </c>
       <c r="U3" t="n">
-        <v>0.1056173586514267</v>
+        <v>0.1044874049649887</v>
       </c>
       <c r="V3" t="n">
-        <v>0.8943826413485733</v>
+        <v>0.8955125950350113</v>
       </c>
     </row>
     <row r="4">
@@ -756,10 +756,10 @@
         </is>
       </c>
       <c r="U4" t="n">
-        <v>0.06119347728509221</v>
+        <v>0.06119241280439491</v>
       </c>
       <c r="V4" t="n">
-        <v>0.9388065227149079</v>
+        <v>0.9388075871956051</v>
       </c>
     </row>
     <row r="5">
@@ -830,10 +830,10 @@
         </is>
       </c>
       <c r="U5" t="n">
-        <v>0.05497675172238086</v>
+        <v>0.05494350087355404</v>
       </c>
       <c r="V5" t="n">
-        <v>0.9450232482776192</v>
+        <v>0.9450564991264461</v>
       </c>
     </row>
     <row r="6">
@@ -904,10 +904,10 @@
         </is>
       </c>
       <c r="U6" t="n">
-        <v>0.1140069182886973</v>
+        <v>0.1131617377923507</v>
       </c>
       <c r="V6" t="n">
-        <v>0.885993081711303</v>
+        <v>0.8868382622076493</v>
       </c>
     </row>
     <row r="7">
@@ -978,10 +978,10 @@
         </is>
       </c>
       <c r="U7" t="n">
-        <v>0.8738858196858047</v>
+        <v>0.8687902062105469</v>
       </c>
       <c r="V7" t="n">
-        <v>0.1261141803141954</v>
+        <v>0.1312097937894532</v>
       </c>
     </row>
     <row r="8">
@@ -1052,10 +1052,10 @@
         </is>
       </c>
       <c r="U8" t="n">
-        <v>0.8607156714927237</v>
+        <v>0.854670251900263</v>
       </c>
       <c r="V8" t="n">
-        <v>0.1392843285072764</v>
+        <v>0.1453297480997372</v>
       </c>
     </row>
     <row r="9">
@@ -1126,10 +1126,10 @@
         </is>
       </c>
       <c r="U9" t="n">
-        <v>0.06321931124229055</v>
+        <v>0.06292140008666391</v>
       </c>
       <c r="V9" t="n">
-        <v>0.9367806887577095</v>
+        <v>0.9370785999133362</v>
       </c>
     </row>
   </sheetData>
